--- a/natmiOut/OldD2/LR-pairs_lrc2p/Bmp7-Eng.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Bmp7-Eng.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>M2</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.179444749129084</v>
+        <v>0.1301303333333333</v>
       </c>
       <c r="H2">
-        <v>0.179444749129084</v>
+        <v>0.390391</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.4028730131292778</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.5029891437391611</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>259.329551025896</v>
+        <v>260.047928</v>
       </c>
       <c r="N2">
-        <v>259.329551025896</v>
+        <v>520.0958559999999</v>
       </c>
       <c r="O2">
-        <v>0.5388708923837155</v>
+        <v>0.5333246545957803</v>
       </c>
       <c r="P2">
-        <v>0.5388708923837155</v>
+        <v>0.4360150557860642</v>
       </c>
       <c r="Q2">
-        <v>46.5353262255999</v>
+        <v>33.84012355328266</v>
       </c>
       <c r="R2">
-        <v>46.5353262255999</v>
+        <v>203.040741319696</v>
       </c>
       <c r="S2">
-        <v>0.5388708923837155</v>
+        <v>0.2148621105731333</v>
       </c>
       <c r="T2">
-        <v>0.5388708923837155</v>
+        <v>0.219310839567215</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.179444749129084</v>
+        <v>0.1301303333333333</v>
       </c>
       <c r="H3">
-        <v>0.179444749129084</v>
+        <v>0.390391</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.4028730131292778</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.5029891437391611</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>38.7455187167447</v>
+        <v>41.816914</v>
       </c>
       <c r="N3">
-        <v>38.7455187167447</v>
+        <v>125.450742</v>
       </c>
       <c r="O3">
-        <v>0.08051081014163811</v>
+        <v>0.08576108022407106</v>
       </c>
       <c r="P3">
-        <v>0.08051081014163811</v>
+        <v>0.1051698675167548</v>
       </c>
       <c r="Q3">
-        <v>6.952679886002481</v>
+        <v>5.441648957791333</v>
       </c>
       <c r="R3">
-        <v>6.952679886002481</v>
+        <v>48.974840620122</v>
       </c>
       <c r="S3">
-        <v>0.08051081014163811</v>
+        <v>0.03455082479909323</v>
       </c>
       <c r="T3">
-        <v>0.08051081014163811</v>
+        <v>0.05289930160941349</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.179444749129084</v>
+        <v>0.1301303333333333</v>
       </c>
       <c r="H4">
-        <v>0.179444749129084</v>
+        <v>0.390391</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.4028730131292778</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.5029891437391611</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.2248213344954</v>
+        <v>8.002373666666667</v>
       </c>
       <c r="N4">
-        <v>7.2248213344954</v>
+        <v>24.007121</v>
       </c>
       <c r="O4">
-        <v>0.01501273535711968</v>
+        <v>0.01641183302072443</v>
       </c>
       <c r="P4">
-        <v>0.01501273535711968</v>
+        <v>0.0201260326943997</v>
       </c>
       <c r="Q4">
-        <v>1.296456251870981</v>
+        <v>1.041351552701222</v>
       </c>
       <c r="R4">
-        <v>1.296456251870981</v>
+        <v>9.372163974311</v>
       </c>
       <c r="S4">
-        <v>0.01501273535711968</v>
+        <v>0.006611884620033827</v>
       </c>
       <c r="T4">
-        <v>0.01501273535711968</v>
+        <v>0.01012317595182247</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.179444749129084</v>
+        <v>0.1301303333333333</v>
       </c>
       <c r="H5">
-        <v>0.179444749129084</v>
+        <v>0.390391</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.4028730131292778</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.5029891437391611</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.28361392181418</v>
+        <v>8.478567333333332</v>
       </c>
       <c r="N5">
-        <v>8.28361392181418</v>
+        <v>25.435702</v>
       </c>
       <c r="O5">
-        <v>0.01721284137712648</v>
+        <v>0.01738844461978203</v>
       </c>
       <c r="P5">
-        <v>0.01721284137712648</v>
+        <v>0.02132366351038126</v>
       </c>
       <c r="Q5">
-        <v>1.486451022082133</v>
+        <v>1.103318793275778</v>
       </c>
       <c r="R5">
-        <v>1.486451022082133</v>
+        <v>9.929869139481999</v>
       </c>
       <c r="S5">
-        <v>0.01721284137712648</v>
+        <v>0.007005335077603168</v>
       </c>
       <c r="T5">
-        <v>0.01721284137712648</v>
+        <v>0.01072557125046867</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.179444749129084</v>
+        <v>0.1301303333333333</v>
       </c>
       <c r="H6">
-        <v>0.179444749129084</v>
+        <v>0.390391</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.4028730131292778</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.5029891437391611</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>157.869413097161</v>
+        <v>159.345759</v>
       </c>
       <c r="N6">
-        <v>157.869413097161</v>
+        <v>478.037277</v>
       </c>
       <c r="O6">
-        <v>0.3280429522174492</v>
+        <v>0.3267975351065956</v>
       </c>
       <c r="P6">
-        <v>0.3280429522174492</v>
+        <v>0.4007558368220747</v>
       </c>
       <c r="Q6">
-        <v>28.32883722837578</v>
+        <v>20.735716733923</v>
       </c>
       <c r="R6">
-        <v>28.32883722837578</v>
+        <v>186.621450605307</v>
       </c>
       <c r="S6">
-        <v>0.3280429522174492</v>
+        <v>0.1316579076516151</v>
       </c>
       <c r="T6">
-        <v>0.3280429522174492</v>
+        <v>0.2015758352116064</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,433 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
         <v>21</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.1301303333333333</v>
+      </c>
+      <c r="H7">
+        <v>0.390391</v>
+      </c>
+      <c r="I7">
+        <v>0.4028730131292778</v>
+      </c>
+      <c r="J7">
+        <v>0.5029891437391611</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>9.906257499999999</v>
+      </c>
+      <c r="N7">
+        <v>19.812515</v>
+      </c>
+      <c r="O7">
+        <v>0.02031645243304672</v>
+      </c>
+      <c r="P7">
+        <v>0.01660954367032533</v>
+      </c>
+      <c r="Q7">
+        <v>1.289104590560833</v>
+      </c>
+      <c r="R7">
+        <v>7.734627543364999</v>
+      </c>
+      <c r="S7">
+        <v>0.00818495040779918</v>
+      </c>
+      <c r="T7">
+        <v>0.008354420148635142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
         <v>22</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.1928755</v>
+      </c>
+      <c r="H8">
+        <v>0.385751</v>
+      </c>
+      <c r="I8">
+        <v>0.5971269868707222</v>
+      </c>
+      <c r="J8">
+        <v>0.4970108562608389</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>260.047928</v>
+      </c>
+      <c r="N8">
+        <v>520.0958559999999</v>
+      </c>
+      <c r="O8">
+        <v>0.5333246545957803</v>
+      </c>
+      <c r="P8">
+        <v>0.4360150557860642</v>
+      </c>
+      <c r="Q8">
+        <v>50.15687413696399</v>
+      </c>
+      <c r="R8">
+        <v>200.627496547856</v>
+      </c>
+      <c r="S8">
+        <v>0.318462544022647</v>
+      </c>
+      <c r="T8">
+        <v>0.2167042162188492</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.1928755</v>
+      </c>
+      <c r="H9">
+        <v>0.385751</v>
+      </c>
+      <c r="I9">
+        <v>0.5971269868707222</v>
+      </c>
+      <c r="J9">
+        <v>0.4970108562608389</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>41.816914</v>
+      </c>
+      <c r="N9">
+        <v>125.450742</v>
+      </c>
+      <c r="O9">
+        <v>0.08576108022407106</v>
+      </c>
+      <c r="P9">
+        <v>0.1051698675167548</v>
+      </c>
+      <c r="Q9">
+        <v>8.065458196207</v>
+      </c>
+      <c r="R9">
+        <v>48.392749177242</v>
+      </c>
+      <c r="S9">
+        <v>0.05121025542497783</v>
+      </c>
+      <c r="T9">
+        <v>0.05227056590734126</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.1928755</v>
+      </c>
+      <c r="H10">
+        <v>0.385751</v>
+      </c>
+      <c r="I10">
+        <v>0.5971269868707222</v>
+      </c>
+      <c r="J10">
+        <v>0.4970108562608389</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>8.002373666666667</v>
+      </c>
+      <c r="N10">
+        <v>24.007121</v>
+      </c>
+      <c r="O10">
+        <v>0.01641183302072443</v>
+      </c>
+      <c r="P10">
+        <v>0.0201260326943997</v>
+      </c>
+      <c r="Q10">
+        <v>1.543461822145167</v>
+      </c>
+      <c r="R10">
+        <v>9.260770932871001</v>
+      </c>
+      <c r="S10">
+        <v>0.0097999484006906</v>
+      </c>
+      <c r="T10">
+        <v>0.01000285674257723</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.1928755</v>
+      </c>
+      <c r="H11">
+        <v>0.385751</v>
+      </c>
+      <c r="I11">
+        <v>0.5971269868707222</v>
+      </c>
+      <c r="J11">
+        <v>0.4970108562608389</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>8.478567333333332</v>
+      </c>
+      <c r="N11">
+        <v>25.435702</v>
+      </c>
+      <c r="O11">
+        <v>0.01738844461978203</v>
+      </c>
+      <c r="P11">
+        <v>0.02132366351038126</v>
+      </c>
+      <c r="Q11">
+        <v>1.635307913700333</v>
+      </c>
+      <c r="R11">
+        <v>9.811847482201999</v>
+      </c>
+      <c r="S11">
+        <v>0.01038310954217887</v>
+      </c>
+      <c r="T11">
+        <v>0.0105980922599126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
         <v>20</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.179444749129084</v>
-      </c>
-      <c r="H7">
-        <v>0.179444749129084</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>9.79324808432963</v>
-      </c>
-      <c r="N7">
-        <v>9.79324808432963</v>
-      </c>
-      <c r="O7">
-        <v>0.0203497685229511</v>
-      </c>
-      <c r="P7">
-        <v>0.0203497685229511</v>
-      </c>
-      <c r="Q7">
-        <v>1.757346945651413</v>
-      </c>
-      <c r="R7">
-        <v>1.757346945651413</v>
-      </c>
-      <c r="S7">
-        <v>0.0203497685229511</v>
-      </c>
-      <c r="T7">
-        <v>0.0203497685229511</v>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.1928755</v>
+      </c>
+      <c r="H12">
+        <v>0.385751</v>
+      </c>
+      <c r="I12">
+        <v>0.5971269868707222</v>
+      </c>
+      <c r="J12">
+        <v>0.4970108562608389</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>159.345759</v>
+      </c>
+      <c r="N12">
+        <v>478.037277</v>
+      </c>
+      <c r="O12">
+        <v>0.3267975351065956</v>
+      </c>
+      <c r="P12">
+        <v>0.4007558368220747</v>
+      </c>
+      <c r="Q12">
+        <v>30.73389294000451</v>
+      </c>
+      <c r="R12">
+        <v>184.403357640027</v>
+      </c>
+      <c r="S12">
+        <v>0.1951396274549805</v>
+      </c>
+      <c r="T12">
+        <v>0.1991800016104684</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.1928755</v>
+      </c>
+      <c r="H13">
+        <v>0.385751</v>
+      </c>
+      <c r="I13">
+        <v>0.5971269868707222</v>
+      </c>
+      <c r="J13">
+        <v>0.4970108562608389</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>9.906257499999999</v>
+      </c>
+      <c r="N13">
+        <v>19.812515</v>
+      </c>
+      <c r="O13">
+        <v>0.02031645243304672</v>
+      </c>
+      <c r="P13">
+        <v>0.01660954367032533</v>
+      </c>
+      <c r="Q13">
+        <v>1.91067436844125</v>
+      </c>
+      <c r="R13">
+        <v>7.642697473764999</v>
+      </c>
+      <c r="S13">
+        <v>0.01213150202524754</v>
+      </c>
+      <c r="T13">
+        <v>0.008255123521690189</v>
       </c>
     </row>
   </sheetData>
